--- a/Input_Data_Sheets/BC_Control_Structure.xlsx
+++ b/Input_Data_Sheets/BC_Control_Structure.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Vertedores_Dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">#REF!</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">HydroPol2D - Internal Boundary Conditions</t>
   </si>
@@ -309,11 +310,180 @@
       <t>(m)</t>
     </r>
   </si>
+  <si>
+    <t>wkt_geom</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>verga</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174771.03252699226140976 -2697390.20539146987721324))</t>
+  </si>
+  <si>
+    <t>in-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174773.76841770298779011 -2697390.5932005662471056))</t>
+  </si>
+  <si>
+    <t>in-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174772.08141761925071478 -2697391.18142105126753449))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174768.46358229592442513 -2697390.94883199036121368))</t>
+  </si>
+  <si>
+    <t>in-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174770.04336644802242517 -2697389.26255415799096227))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174633.6735237967222929 -2697429.87688176287338138))</t>
+  </si>
+  <si>
+    <t>out-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174637.04327640496194363 -2697425.19948079017922282))</t>
+  </si>
+  <si>
+    <t>out-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174633.37605292815715075 -2697425.71228960901498795))</t>
+  </si>
+  <si>
+    <t>out-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174636.10580225382000208 -2697426.27584000118076801))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175218.18516768887639046 -2696980.04404611233621836))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174635.11624620482325554 -2697427.17859288724139333))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175125.10135082714259624 -2696861.2150744260288775))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174388.02498947083950043 -2697550.43799513857811689))</t>
+  </si>
+  <si>
+    <t>out-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175217.02200531587004662 -2696980.23501306911930442))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174372.98741129320114851 -2697765.84441552264615893))</t>
+  </si>
+  <si>
+    <t>in-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175216.0150886345654726 -2696980.3044555988162756))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174903.68420005030930042 -2697110.57607436971738935))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175127.20024336129426956 -2696861.16449870215728879))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174765.21211750339716673 -2697104.39674566639587283))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175126.06228957790881395 -2696861.18978656409308314))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174803.01834123488515615 -2697451.34543010080233216))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174794.11499150190502405 -2697480.93090567504987121))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174371.00218096747994423 -2697747.26212000194936991))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174370.05470346845686436 -2697747.31333500193431973))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174369.13283346965909004 -2697747.31333500193431973))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174367.90367347095161676 -2697747.28772750217467546))</t>
+  </si>
+  <si>
+    <t>in-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174768.75553680490702391 -2697390.42703778482973576))</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174366.93058847170323133 -2697747.26212000194936991))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174763.37388248462229967 -2697391.37674148846417665))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174392.06243863422423601 -2697550.43799513857811689))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5175218.75799459964036942 -2696980.33425377029925585))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174391.17044405173510313 -2697550.43799513857811689))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174383.26167113985866308 -2697820.17672876128926873))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174390.0906611355021596 -2697550.39104805514216423))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174902.67125145252794027 -2697110.96284850500524044))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174389.0578253036364913 -2697550.39104805514216423))</t>
+  </si>
+  <si>
+    <t>out-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174794.04677415266633034 -2697480.26515593798831105))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174912.05845060106366873 -2697099.08650061255320907))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiPoint ((-5174787.66632490511983633 -2697477.61443582037463784))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="160" formatCode="0.000"/>
+    <numFmt numFmtId="161" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11.000000"/>
@@ -343,7 +513,7 @@
       <name val="Garamond"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
         <bgColor theme="0" tint="-0.049989318521683403"/>
       </patternFill>
     </fill>
@@ -389,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -402,13 +578,9 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -418,6 +590,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +1111,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>306998</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>36898</xdr:rowOff>
+      <xdr:rowOff>36897</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1581216" cy="233023"/>
     <xdr:sp>
@@ -942,7 +1120,7 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="0" flipV="0">
+        <a:xfrm>
           <a:off x="3436641" y="390684"/>
           <a:ext cx="1581216" cy="233023"/>
         </a:xfrm>
@@ -1889,15 +2067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.88671875"/>
-    <col customWidth="1" min="2" max="2" style="1" width="21.00390625"/>
+    <col min="1" max="1" style="1" width="8.85546875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="21"/>
     <col customWidth="1" min="3" max="13" style="1" width="17"/>
-    <col min="14" max="16384" style="1" width="8.88671875"/>
+    <col min="14" max="16384" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75">
@@ -1982,115 +2160,175 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>-5166922.8399999999</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-2704154.6400000001</v>
-      </c>
-      <c r="D4" s="5">
-        <f>1.6*10</f>
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
+        <v>-5174773.7599999998</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-2697390.5899999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <f>3/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-5166922.8399999999</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-2704174.6400000001</v>
-      </c>
-      <c r="I4" s="5">
-        <f>0.62*(PI()*(0.25)^2)*SQRT(2*9.8)</f>
-        <v>0.53895141341943853</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="K4" s="5">
-        <f>1/2</f>
+      <c r="F4" s="6">
         <v>0.5</v>
       </c>
-      <c r="L4" s="7">
-        <v>-5166922.8399999999</v>
-      </c>
-      <c r="M4" s="5">
-        <v>-2704174.6400000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G4" s="6">
+        <v>-5174633.6699999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-2697429.8700000001</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" ht="18.75">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-5174768.46</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-2697390.9399999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-5174633.3700000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-2697425.71</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+    </row>
+    <row r="6" ht="18.75">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-5175218.1799999997</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-2696980.04</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-5175125.0999999996</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-2696861.21</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+    </row>
+    <row r="7" ht="18.75">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-5174383.6399999997</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-2697820.6299999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-5174388.0199999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-2697550.4300000002</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    <row r="8" ht="18.75">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-5174903.6799999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-2697110.5699999998</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-5174765.21</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-2697104.3900000001</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    <row r="9" ht="18.75">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-5174803.0099999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-2697451.3399999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-5174794.1100000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-2697480.9300000002</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2099,13 +2337,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2114,13 +2352,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2129,13 +2367,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2144,13 +2382,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2159,13 +2397,13 @@
     </row>
     <row r="14" ht="17.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2174,14 +2412,6 @@
     </row>
     <row r="15" ht="17.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -2189,13 +2419,6 @@
     </row>
     <row r="16">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2217,10 +2440,10 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" ht="17.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2283,4 +2506,810 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="10">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>-5174771.0300000003</v>
+      </c>
+      <c r="K11">
+        <v>-2697390.2000000002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11">
+        <v>-5174773.7599999998</v>
+      </c>
+      <c r="T11">
+        <v>-2697390.5899999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>-5174772.0800000001</v>
+      </c>
+      <c r="K12">
+        <v>-2697391.1800000002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12">
+        <v>-5174768.46</v>
+      </c>
+      <c r="T12">
+        <v>-2697390.9399999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>-5174770.04</v>
+      </c>
+      <c r="K13">
+        <v>-2697389.2599999998</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13">
+        <v>-5174633.6699999999</v>
+      </c>
+      <c r="T13">
+        <v>-2697429.8700000001</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25">
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>-5174637.04</v>
+      </c>
+      <c r="K14">
+        <v>-2697425.1899999999</v>
+      </c>
+      <c r="N14" s="12">
+        <v>779.19000000000005</v>
+      </c>
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14">
+        <v>-5174633.3700000001</v>
+      </c>
+      <c r="T14">
+        <v>-2697425.71</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25">
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <v>-5174636.0999999996</v>
+      </c>
+      <c r="K15">
+        <v>-2697426.27</v>
+      </c>
+      <c r="N15" s="12">
+        <v>779.19000000000005</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15">
+        <v>-5175218.1799999997</v>
+      </c>
+      <c r="T15">
+        <v>-2696980.04</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>-5174635.1100000003</v>
+      </c>
+      <c r="K16">
+        <v>-2697427.1699999999</v>
+      </c>
+      <c r="N16" s="12">
+        <v>779.19000000000005</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16">
+        <v>-5175125.0999999996</v>
+      </c>
+      <c r="T16">
+        <v>-2696861.21</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>-5175218.1799999997</v>
+      </c>
+      <c r="K17">
+        <v>-2696980.04</v>
+      </c>
+      <c r="N17" s="12">
+        <v>779.83799999999997</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>-5174388.0199999996</v>
+      </c>
+      <c r="T17">
+        <v>-2697550.4300000002</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>-5175217.0199999996</v>
+      </c>
+      <c r="K18">
+        <v>-2696980.23</v>
+      </c>
+      <c r="N18" s="12">
+        <v>779.83799999999997</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>-5174372.9800000004</v>
+      </c>
+      <c r="T18">
+        <v>-2697765.8399999999</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>-5175216.0099999998</v>
+      </c>
+      <c r="K19">
+        <v>-2696980.2999999998</v>
+      </c>
+      <c r="N19" s="12">
+        <v>779.83799999999997</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19">
+        <v>-5174903.6799999997</v>
+      </c>
+      <c r="T19">
+        <v>-2697110.5699999998</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25">
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>-5175127.2000000002</v>
+      </c>
+      <c r="K20">
+        <v>-2696861.1600000001</v>
+      </c>
+      <c r="N20" s="13">
+        <v>780.37800000000004</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20">
+        <v>-5174765.21</v>
+      </c>
+      <c r="T20">
+        <v>-2697104.3900000001</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25">
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>-5175126.0599999996</v>
+      </c>
+      <c r="K21">
+        <v>-2696861.1899999999</v>
+      </c>
+      <c r="N21" s="13">
+        <v>780.37800000000004</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21">
+        <v>-5174803.0099999998</v>
+      </c>
+      <c r="T21">
+        <v>-2697451.3399999999</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25">
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>-5175125.0999999996</v>
+      </c>
+      <c r="K22">
+        <v>-2696861.21</v>
+      </c>
+      <c r="N22" s="9">
+        <v>785.02499999999998</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22">
+        <v>-5174794.1100000003</v>
+      </c>
+      <c r="T22">
+        <v>-2697480.9300000002</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25">
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>-5174371</v>
+      </c>
+      <c r="K23">
+        <v>-2697747.2599999998</v>
+      </c>
+      <c r="N23" s="9">
+        <v>784.89499999999998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24">
+        <v>-5174370.0499999998</v>
+      </c>
+      <c r="K24">
+        <v>-2697747.3100000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>-5174369.1299999999</v>
+      </c>
+      <c r="K25">
+        <v>-2697747.3100000001</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26">
+        <v>-5174367.9000000004</v>
+      </c>
+      <c r="K26">
+        <v>-2697747.2799999998</v>
+      </c>
+      <c r="P26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>-5174768.75</v>
+      </c>
+      <c r="T26">
+        <v>-2697390.4199999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>-5174366.9299999997</v>
+      </c>
+      <c r="K27">
+        <v>-2697747.2599999998</v>
+      </c>
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>-5174763.3700000001</v>
+      </c>
+      <c r="T27">
+        <v>-2697391.3700000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>-5174392.0599999996</v>
+      </c>
+      <c r="K28">
+        <v>-2697550.4300000002</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>-5175218.75</v>
+      </c>
+      <c r="T28">
+        <v>-2696980.3300000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>-5174391.1699999999</v>
+      </c>
+      <c r="K29">
+        <v>-2697550.4300000002</v>
+      </c>
+      <c r="P29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>-5174383.2599999998</v>
+      </c>
+      <c r="T29">
+        <v>-2697820.1699999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>-5174390.0899999999</v>
+      </c>
+      <c r="K30">
+        <v>-2697550.3900000001</v>
+      </c>
+      <c r="P30" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>-5174902.6699999999</v>
+      </c>
+      <c r="T30">
+        <v>-2697110.96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31">
+        <v>-5174389.0499999998</v>
+      </c>
+      <c r="K31">
+        <v>-2697550.3900000001</v>
+      </c>
+      <c r="P31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31">
+        <v>-5174794.04</v>
+      </c>
+      <c r="T31">
+        <v>-2697480.2599999998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>-5174388.0199999996</v>
+      </c>
+      <c r="K32">
+        <v>-2697550.4300000002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>-5174912.0499999998</v>
+      </c>
+      <c r="K33">
+        <v>-2697099.0800000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>-5174765.21</v>
+      </c>
+      <c r="K34">
+        <v>-2697104.3900000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>-5174787.6600000001</v>
+      </c>
+      <c r="K35">
+        <v>-2697477.6099999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>-5174803.0099999998</v>
+      </c>
+      <c r="K36">
+        <v>-2697451.3399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>